--- a/public/crawler_file/20230629144113041868_PRTIMES.xlsx
+++ b/public/crawler_file/20230629144113041868_PRTIMES.xlsx
@@ -6,7 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PRTIMES" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="営業支援&#10;" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="コンテンツマーケティング" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -550,10 +551,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -3960,135 +3961,172 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="4.109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5.21875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.5546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="5.21875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="7.33203125" bestFit="1" customWidth="1" min="6" max="7"/>
+    <col width="12.21875" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="7.33203125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="39.44140625" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="15.88671875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="30.77734375" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="15.88671875" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="15.33203125" bestFit="1" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" customFormat="1" customHeight="1" s="5">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>KW</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>コンテンツマーケティング</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="4" t="n"/>
+      <c r="H1" s="6" t="n"/>
+    </row>
+    <row r="2" ht="13.2" customFormat="1" customHeight="1" s="5">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>業種</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>企業名</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D2" s="8" t="inlineStr">
         <is>
           <t>企業ホームページURL</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>上場</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>資本金</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G2" s="9" t="inlineStr">
         <is>
           <t>設立日</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>記事タイトル</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I2" s="9" t="inlineStr">
         <is>
           <t>公開日</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J2" s="9" t="inlineStr">
         <is>
           <t>記事内に記載された商品・サービスのURL</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="K2" s="9" t="inlineStr">
         <is>
           <t>ビジネスカテゴリ</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L2" s="9" t="inlineStr">
         <is>
           <t>記事最下部に表示されているKW</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="M2" s="9" t="inlineStr">
         <is>
           <t>PRTIMESのURL</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="N2" s="9" t="inlineStr">
         <is>
           <t>RELEASE TIME</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>株式会社IDEATECH</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ideatech.jp/</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>【マーケ担当者必見】話題のChatGPT、「企業の活用に関する調査資料まとめ」を無料公開！</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 19時08分</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://ideatech.jp/download/080/?utm_source=pr_230629
 https://ideatech.jp/download/080/?utm_source=pr_230629
@@ -4100,12 +4138,12 @@
 https://ideatech.jp/</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>マーケティング・リサーチ</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>マーケティング
 調査
@@ -4119,62 +4157,62 @@
 リサーチ</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000127.000045863.html</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023-06-29T19:08:35+0900</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>株式会社ドリコム</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://drecom.co.jp/</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>東証グロース</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>18億1131万円</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2001年11月</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>『Eternal Crypt -Wizardry BC-』、国内最大級のWeb3ゲームコンテスト「SHAKE! KYOTO」にて優秀賞・MARBLEX賞をダブル受賞！</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 18時42分</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://wiz-eternalcrypt.com/
 https://twitter.com/WizardryBC_JP
@@ -4186,12 +4224,12 @@
 https://turingum.com/</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>ネットサービス</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Web3
 NFT
@@ -4203,62 +4241,62 @@
 IVS Crypto 2023 KYOTO</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000106.000080650.html</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023-06-29T18:42:25+0900</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>株式会社リンクアンドパートナーズ</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://www.link-ap.com</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1億3694万円</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2011年03月</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>【マーケティング成功の要因を調査】BtoBマーケティングコンサルタントが答える、成功可否を分ける‟実態”とは</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t xml:space="preserve"> 17時00分</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://service.link-ap.com/whitepaper05
 https://service.link-ap.com/
@@ -4268,12 +4306,12 @@
 https://www.link-ap.com/</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>ネットサービスマーケティング・リサーチ</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>調査レポート
 広告
@@ -4287,62 +4325,62 @@
 ホワイトペーパー</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000038.000064362.html</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023-06-29T17:00:05+0900</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>株式会社プラチナエッグ</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://www.platinum-egg.com/</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>2002年12月</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>賞金付きバトルロイヤル「クライマーズ（Climbers）」「The LAND〜エルフの森〜」のGame Partnerに！</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 17時00分</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://climbers.show/
 https://theland.elfmasters.com/
@@ -4354,12 +4392,12 @@
 https://www.youtube.com/@climbersshow</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>スマートフォンゲームスマートフォンアプリ</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Climbers
 クライマーズ
@@ -4373,62 +4411,62 @@
 Web3</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000031.000092285.html</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023-06-29T17:00:01+0900</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="7">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>株式会社TechnoBlood eSports</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://tb-es.co.jp/</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1000万円</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>2021年04月</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>TechnoBlood eSports、inStreamlyと業務提携を締結しスポンサーシッププラットフォーム「StreamPot」を6月29日にリリース</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t xml:space="preserve"> 17時00分</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://www.streampot.net/
 https://twitter.com/StreamPot_JP
@@ -4439,12 +4477,12 @@
 https://tb-es.co.jp/</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>広告・宣伝・PRネットサービス</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Twitch
 YouTube
@@ -4457,130 +4495,130 @@
 コンサルティング</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000003.000084299.html</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023-06-29T17:00:02+0900</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="8">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Shinwa Wise Holdings株式会社</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://www.shinwa-wise.com/company/profile/</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>東証スタンダード</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>15億9426万円</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>1989年06月</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Edoverseバトルゲームがいよいよ7/1にリリース！あと2日！</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t xml:space="preserve"> 16時54分</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://youtu.be/9ZohmdPJPxg
 https://edoverse.io/
 https://shinwa-wise.com%29/</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>ネットサービス</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000081.000082831.html</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023-06-29T16:54:46+0900</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="9">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>株式会社HashPalette</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://hashpalette.com/</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4500万円</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>2020年03月</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>メタバース型ファーミングブロックチェーンゲーム「THE LAND 〜エルフの森〜」のGAME PartnerとDEVELOPMENT Partnerを発表</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 16時30分</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000059.000056303.html
 https://www.sushitopmarketing.com/
@@ -4612,12 +4650,12 @@
 https://www.wantedly.com/companies/company_2908299</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>ネットサービス</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Web3
 ブロックチェーンゲーム
@@ -4631,62 +4669,62 @@
 エルフの森</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000064.000056303.html</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023-06-29T16:30:04+0900</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="10">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>アクチュアリ株式会社</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://www.actuali.co.jp/</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>500万円</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>2020年03月</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>食卓の名脇役 世界の高品質オリーブオイルに出会える「eオリーブオイル選び」 最新OLIVE JAPAN® 2023 国際オリーブオイルコンテスト受賞商品データを一挙公開</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 16時20分</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://exvoliveoil.com/dbsearch/
 https://exvoliveoil.myshopify.com/
@@ -4703,12 +4741,12 @@
 https://www.facebook.com/exvoliveoilcom</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>食品・お菓子ネットサービス</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>オリーブオイル
 エキストラバージン
@@ -4722,62 +4760,62 @@
 確かな品質</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000006.000078810.html</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023-06-29T16:20:01+0900</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="11">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>商業（卸売業、小売業）</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>バング・アンド・オルフセン・ジャパン株式会社</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>海外市場</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>デジタル・アバター・キャンペーン "SEE YOURSELF IN SOUND" を実施</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 16時05分</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://senses.bang-olufsen.com/
 https://senses.bang-olufsen.com/
@@ -4785,68 +4823,68 @@
 https://prtimes.jp/a/?f=d80325-25-5dacfc5c9975fef0b45a7237b47f213b.pdf</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>AV機器</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000025.000080325.html</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023-06-29T16:05:25+0900</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>株式会社カカクコム</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://corporate.kakaku.com/</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>東証プライム</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>9億1600万円</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>1997年12月</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>カカクコム、「食べログ仕入」のサービスメニューにデジタルガレージのB2B決済サービス「DGFT請求書カード払い」を追加 〜デジタルガレージと共同で飲食業界向けフィンテックソリューションを推進〜</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15時40分</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://corporate.kakaku.com/
 https://tabelog.com/
@@ -4855,12 +4893,12 @@
 https://shiire.tabelog.com/</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>ネットサービス</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>カカクコム
 デジタルガレージ
@@ -4870,62 +4908,62 @@
 請求書</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000917.000001455.html</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023-06-29T15:40:04+0900</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="13">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>株式会社デジタルガレージ</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://www.garage.co.jp/</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>東証プライム</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>75億9100万円</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>1995年08月</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>デジタルガレージ、B2B決済サービス「DGFT請求書カード払い」を「食べログ仕入」のサービスメニューに追加</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15時34分</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://www.garage.co.jp/ja/pr/release/2022/11/20221110/)
 https://www.garage.co.jp/ja/pr/release/2022/12/20221212/)
@@ -4937,12 +4975,12 @@
 https://shiire.tabelog.com/</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>ネットサービスレストラン・ファストフード・居酒屋</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>デジタルガレージ
 カカクコム
@@ -4956,74 +4994,74 @@
 飲食店</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000319.000023393.html</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023-06-29T15:34:58+0900</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="14">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>株式会社 U-NEXT</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://unext.co.jp</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>U-NEXTがTBSに対する新株発行で資金調達を行い、資本業務提携関係を大幅に強化。国内No.1プラットフォームとしてのさらなる成長に向け、より戦略的なシナジーを実現</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15時06分</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://ssl4.eir-parts.net/doc/9418/tdnet/2305620/00.pdf
 https://video.unext.jp/
 https://square.unext.jp/</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>ネットサービステレビ・CM</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>U-NEXT
 ユーネクスト
@@ -5032,73 +5070,73 @@
 Paravi</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000001457.000031998.html</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023-06-29T15:06:12+0900</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="15">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Braze株式会社</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://www.braze.co.jp</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>2020年07月</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Braze、 AI機能に新機能を追加し、カスタマージャーニー全体で顧客エンゲージメントを強化</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15時00分</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://www.braze.co.jp/resources/articles/sage-ai-by-braze-announcement
 https://www.event-info.com/braze-japan-2023/?utm_source=prtimes&amp;utm_medium=press-release&amp;utm_campaign=fy24-q2-japan-city_x_city_tokyo&amp;r=044</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>アプリケーション・セキュリティシステム・Webサイト・アプリ開発</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>SaaS
 マーケティング
@@ -5112,62 +5150,62 @@
 MA</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000058.000066773.html</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023-06-29T15:00:20+0900</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="16">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>株式会社ReviCo</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://www.revico.net/</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1億円</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>2022年10月</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>東京シャツがReviCo導入でレビュー投稿数300倍を達成！</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15時00分</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>https://lp.revico.net/case/detail/3
 https://www.revico.net/
@@ -5175,12 +5213,12 @@
 https://twitter.com/ReviCo_PR</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>システム・Webサイト・アプリ開発EC・通販</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>東京シャツ
 ReviCo
@@ -5193,62 +5231,62 @@
 EC</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000004.000111946.html</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023-06-29T15:00:02+0900</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="17">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>商業（卸売業、小売業）</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>株式会社フェリシモ</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://www.felissimo.co.jp/</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>東証1部</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>18億6800万円</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>1965年05月</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>ピタッと留めればやる気モードスタート 「かわいい猫さんがお手伝い 跡がつきにくい前髪クリップ」がフェリシモ「猫部™」から新登場</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15時00分</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://feli.jp/s/pr230703nk/1/
 https://feli.jp/s/pr230703nk/2/
@@ -5271,12 +5309,12 @@
 https://feli.jp/s/pr230312/6/</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>EC・通販日用品・生活雑貨</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>ヘアアクセ
 アクセサリー
@@ -5289,73 +5327,73 @@
 フェリシモ</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000003096.000012759.html</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023-06-29T15:00:02+0900</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="18">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>一般社団法人SNSトレンドマーケティング協会</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://sns-trend-marketing.com/</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>2021年12月</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>ソニーミュージック・電通・SNOWなどZ世代の心を動かすトップランナーから学ぶ！バズを生む企画講義「スタジオバイラル」が7月開講</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t xml:space="preserve"> 13時00分</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://sns-trend-marketing.com/lp/
 https://sns-trend-marketing.com/</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>広告・宣伝・PRテレビ・CM</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>SNSトレンド
 SNSトレンドマーケティング協会
@@ -5369,62 +5407,62 @@
 AI</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000012.000091575.html</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023-06-29T13:00:01+0900</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="19">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>株式会社ClaN Entertainment</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://clan-entertainment.com/</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>3億円</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>2022年04月</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Xfolio（クロスフォリオ）とVTuberコンテンツのタイアップ実施決定！</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t xml:space="preserve"> 13時00分</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>https://xfolio.jp/
 https://noripro.jp/talent-himesaki/
@@ -5436,12 +5474,12 @@
 https://www.wantedly.com/companies/company_7437105</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>ネットサービスセールス・営業</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Xfolio
 姫咲ゆずる
@@ -5454,62 +5492,62 @@
 マーケティング</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000030.000100939.html</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023-06-29T13:00:01+0900</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="20">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>株式会社イノベーション</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://www.innovation.co.jp/</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>東証グロース</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>10億174万円</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>2000年12月</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>業界専門家にセミナー／イベント登壇のオファーができる「Match UP」がん研究会有明病院の清水 研氏、BMコンサルティング株式会社の深沢 真太郎氏などが新たにゲスト登録！</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t xml:space="preserve"> 13時00分</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>https://promote.match-up-biz.com/lp
 https://promote.match-up-biz.com/lp/register
@@ -5517,12 +5555,12 @@
 https://www.innovation.co.jp/</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>ネットサービスその他</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Innovation X Solutions
 Match UP
@@ -5531,62 +5569,62 @@
 業界専門家</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000361.000014573.html</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023-06-29T13:00:01+0900</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="21">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>株式会社膝栗毛</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://hizakurige.com/</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>2021年11月</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>累計DL数8万の歩き旅アプリ「膝栗毛」を活用した、自治体や企業の「観光DX」取り組み事例4選</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t xml:space="preserve"> 13時00分</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>https://apps.apple.com/us/app/id1560771886
 https://play.google.com/store/apps/details?id=com.hizakurige
@@ -5597,12 +5635,12 @@
 https://hizakurige.com/</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>旅行・観光スマートフォンアプリ</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>歩き旅
 街歩き
@@ -5616,62 +5654,62 @@
 事例</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000018.000094428.html</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023-06-29T13:00:01+0900</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="22">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>HeaR株式会社</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>https://hear.co.jp/</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>3500万円</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>2018年08月</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>【採用課題のある企業様必見】採用支援のHeaR、採用課題の見える化ができる「HITOME CX」の無料キャンペーン実施中！</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12時20分</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>https://hear-20737044.hs-sites.com/pr_hitome_rx
 https://hear-20737044.hs-sites.com/inquiry
@@ -5681,12 +5719,12 @@
 https://www.hear.co.jp/story/message</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>就職・転職・人材派遣・アルバイトネットサービス</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>採用
 採用コンサルティング
@@ -5696,73 +5734,73 @@
 分析ツール</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000225.000047490.html</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2023-06-29T12:20:01+0900</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="23">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>株式会社ベクトル</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>http://www.vectorinc.co.jp/</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>東証プライム</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>28億8000万円</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>1993年03月</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>ベクトルグループ出資先である株式会社Ｗ　ＴＯＫＹＯの東証グロース市場への上場のお知らせ</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11時30分</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://www.w-tokyo.co.jp/
 https://vectorinc.co.jp/</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>広告・宣伝・PRマーケティング・リサーチ</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>上場
 グロース
@@ -5776,62 +5814,62 @@
 ベンチャー</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000369.000000204.html</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2023-06-29T11:30:01+0900</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="24">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>教育・学習支援業</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>学校法人グロービス経営大学院</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>2007年12月</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>グロービス経営大学院、動画とAIで学べるMBA単位「ナノ単科」でChatGPTを活用したAIコーチング機能を提供開始！テクノベート時代のビジネス学習を支援</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11時26分</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://globis.co.jp/news/mba/8612-2023-04-10/
 https://mba.globis.ac.jp/pre-mba/
@@ -5842,12 +5880,12 @@
 https://www.globis.co.jp/</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>学校・大学スマートフォンアプリ</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>ナノ単科
 AI
@@ -5861,62 +5899,62 @@
 MBA</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000052.000064393.html</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>2023-06-29T11:26:22+0900</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="25">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>株式会社ベーシック</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>http://basicinc.jp/</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1億円</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>2004年03月</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>ベーシック、7/11(火)エキサイト社主催のセミナー「BtoBリード獲得・育成におけるブルーオーシャン戦略！動画マーケティング戦略」に登壇</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11時05分</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://www.fangrowth.biz/event/20230711?marketing_source=basic
 https://www.fangrowth.biz/event/20230711?marketing_source=basic#eventForm
@@ -5926,12 +5964,12 @@
 https://basicinc.jp/</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>システム・Webサイト・アプリ開発マーケティング・リサーチ</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>BtoBマーケ
 見込み顧客
@@ -5942,73 +5980,73 @@
 BtoBマーケティング</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000407.000006585.html</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2023-06-29T11:05:10+0900</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="26">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>totonoü</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>2020年10月</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>totonoüが『サウナ販売店・代理店』の一般募集を開始、北欧産サウナ製品の取扱事業者を日本全国で公募へ</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11時00分</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://forms.gle/VrG5EHjK9N5hESmZA
 https://totonou.co/</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>フィットネス・ヘルスケア住宅・マンション</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>バレルサウナ
 キャビンサウナ
@@ -6022,73 +6060,73 @@
 自宅用サウナ</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000032.000067595.html</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>2023-06-29T11:00:18+0900</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="27">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Shopify Japan 株式会社</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://www.shopify.jp/</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>海外市場</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>2017年11月</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Shopify Japan、エンターテインメント業界の法人向けにコマースを起点としたDX支援を提供するためのプログラム「Shopify Entertainment Program」を開始</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11時00分</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000093.000034630.html)
 https://www.shopify.com/jp</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>EC・通販芸能</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Shopify
 エンターテインメント
@@ -6101,73 +6139,73 @@
 コマース</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000112.000034630.html</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>2023-06-29T11:00:15+0900</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="28">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>株式会社EventHub</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>https://eventhub.jp/</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>8億7500万円</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>2016年02月</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>「EventHub」イベントページを大規模リニューアル！</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11時00分</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>https://eventhub.jp/events/20230720-webinar/
 https://eventhub.jp/</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>ネットサービスシステム・Webサイト・アプリ開発</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>イベント
 イベントマーケティング
@@ -6178,62 +6216,62 @@
 ブランディング</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000055.000031178.html</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>2023-06-29T11:00:03+0900</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="29">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>株式会社電通デジタル</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>https://www.dentsudigital.co.jp/</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>4億4250万円</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>2016年07月</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>BtoB企業の商談創出を支援する「B2Bグローススイッチ」提供開始</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11時00分</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>https://kaizenplatform.co.jp/
 https://b2b.dentsu.jp/
@@ -6241,12 +6279,12 @@
 https://www.dentsudigital.co.jp/</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>経営・コンサルティングマーケティング・リサーチ</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>電通B2Bイニシアティブ
 B2Bグローススイッチ
@@ -6260,74 +6298,74 @@
 リードクオリフィケーション</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000015.000121065.html</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>2023-06-29T11:00:03+0900</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="30">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>株式会社Kaizen Platform</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>https://kaizenplatform.co.jp</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>東証グロース</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>2013年03月</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Kaizen Platform、電通B2Bイニシアティブと共同でフォーム改善施策「B2Bグローススイッチトライアル」を提供開始</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11時00分</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>https://b2b.dentsu.jp/
 https://www.dentsu.co.jp/news/release/2021/0629-010398.html
 https://kaizenplatform.co.jp/</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>セールス・営業マーケティング・リサーチ</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>Kaizen Platform
 カイゼンプラットフォーム
@@ -6339,62 +6377,62 @@
 DX</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000120.000011259.html</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>2023-06-29T11:00:03+0900</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="31">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>株式会社DearOne</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>https://www.dearone.io/</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1億円</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>2011年05月</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>チョコレートブランドのゴディバ ジャパンとDearOne、「ゴディバ公式アプリ」をバージョンアップ</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11時00分</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>https://moduleapps.com/app/godiva/
 https://apps.apple.com/jp/app/id1543392103
@@ -6405,12 +6443,12 @@
 https://www.dearone.io/</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>食品・お菓子スマートフォンアプリ</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ゴディバ
 GODIVA
@@ -6424,72 +6462,72 @@
 店舗検索</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000188.000002473.html</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>2023-06-29T11:00:03+0900</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="32">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>株式会社Godot</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>https://godot.inc/</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>2022年07月</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Godot、行動変容シミュレータ「CogPot」のβ版を開発</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11時00分</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>https://godot.inc/</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>システム・Webサイト・アプリ開発アプリケーション・セキュリティ</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ChatGPT
 行動科学
@@ -6500,62 +6538,62 @@
 クラウド</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000010.000106742.html</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>2023-06-29T11:00:03+0900</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="33">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>商業（卸売業、小売業）</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>株式会社　大丸松坂屋百貨店</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>2010年03月</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>J.フロント リテイリングのコーポレートベンチャーキャピタル、コミュニティSNS「WeClip」の開発と運営を行うTieUps株式会社に出資</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11時00分</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>https://lit.link/
 https://weclip.link/
@@ -6564,12 +6602,12 @@
 https://cvc.j-front-retailing.com/</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>百貨店・スーパー・コンビニ・ストア</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>CVC
 lit.link
@@ -6578,74 +6616,74 @@
 WeClip</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000001965.000025003.html</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>2023-06-29T11:00:03+0900</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="34">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>株式会社Japanticket</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>https://japanticket.com/</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>900万円</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>2021年10月</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>株式会社Japanticket、「HondaJet」を活用したインバウンド富裕層向け「プレミアムガストロノミーツアー」のトライアルを富山県で実施</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11時00分</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>https://japanticket.com/
 https://toyamato.jp/
 https://kouraku-japan.jp/</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>システム・Webサイト・アプリ開発旅行・観光</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>Japan ticket
 Japanticket
@@ -6657,62 +6695,62 @@
 観光再始動事業</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000013.000093487.html</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>2023-06-29T11:00:03+0900</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="35">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Tastemade Japan株式会社</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>https://www.tastemade.jp/</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1億円</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>2016年06月</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Tastemade Japan代表取締役社⻑の夏⽬が「Advertising Week Asia 2023」に登壇し、⽇本No.1のTikTokerバヤシ⽒とクロストークセッションを実施</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10時30分</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>https://www.instagram.com/tastemade_japan/
 https://www.facebook.com/tastemadejp/
@@ -6722,12 +6760,12 @@
 https://www.wantedly.com/companies/bit</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>広告・宣伝・PRネットサービス</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>AWA
 テイストメイドジャパン
@@ -6741,62 +6779,62 @@
 Tastemade Japan</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000089.000047218.html</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>2023-06-29T10:30:02+0900</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="36">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>株式会社クリーク・アンド・リバー社</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>https://www.cri.co.jp</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>東証プライム</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>11億7719万円</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>1990年03月</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>6月30日まで「XR総合展 夏」に出展！「VRマルチ管理ツール」や「PICO 4 Enterprise」などを紹介</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10時30分</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>https://www.xr-fair.jp/summer/ja-jp.html
 https://www.xr-fair.jp/summer/ja-jp/visit.html
@@ -6805,12 +6843,12 @@
 https://www.vr-japan.co.jp/</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>システム・Webサイト・アプリ開発パソコン・周辺機器</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>クリーク･アンド･リバー社
 東京ビッグサイト
@@ -6824,74 +6862,74 @@
 ビジネス</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000002988.000003670.html</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>2023-06-29T10:30:02+0900</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="37">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>エキサイトホールディングス株式会社</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>https://www.excite-holdings.co.jp/</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>東証スタンダード</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>1997年08月</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>エキサイトのウェビナーPDCAクラウド「FanGrowth」、共催イベントマッチングコミュニティが600社を突破</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10時05分</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>https://www.fangrowth.biz/community
 https://info.excite.co.jp/
 https://www.wantedly.com/companies/excite/projects</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>セールス・営業マーケティング・リサーチ</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>FanGrowth
 ウェビナーPDCAクラウド
@@ -6902,62 +6940,62 @@
 AI</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000900.000001346.html</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>2023-06-29T10:05:01+0900</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="38">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>株式会社イノベーション</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>https://www.innovation.co.jp/</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>東証グロース</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>10億174万円</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>2000年12月</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>【7/6（木）Webセミナー】「事業にインパクトさせるコンテンツマーケティングの始め方」をテーマにセミナーを開催</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10時00分</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>https://techro.co.jp/webinar/leadtomeeting/?utm_source=20230706_seminar&amp;utm_medium=referral&amp;utm_campaign=230706_innovation
 https://techro.co.jp/webinar/leadtomeeting/?utm_source=20230706_seminar&amp;utm_medium=referral&amp;utm_campaign=230706_innovation
@@ -6966,12 +7004,12 @@
 https://www.innovation.co.jp/</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>ネットサービスその他</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>Innovation X Solutions
 List Finder
@@ -6983,62 +7021,62 @@
 ナーチャリング</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000362.000014573.html</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>2023-06-29T10:00:03+0900</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="39">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>アウトブレインジャパン株式会社</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>http://www.outbrain.com/jp</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>海外市場</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t xml:space="preserve"> -</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>2013年11月</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Outbrain、産経新聞グループが運営する産経ニュースとパブリッシャー向け総合ビジネス最適化プラットフォーム「Keystone」導入に関する契約を締結</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10時00分</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>https://www.outbrain.com/jp/
 https://www.facebook.com/outbrainJP/
@@ -7048,12 +7086,12 @@
 https://www.facebook.com/SankeiShimbun</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>広告・宣伝・PRセールス・営業</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>アウトブレイン
 コンテキスト
@@ -7065,62 +7103,62 @@
 収益多様化</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000067.000018864.html</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>2023-06-29T10:00:03+0900</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="40">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>株式会社ウィルゲート</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>http://www.willgate.co.jp/</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>6000万円</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>2006年06月</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>7/11(火)＜第5回＞Wiz山崎が学ぶ！ウィルゲート吉岡専務が【SEO】のキーワードで1位を獲得した方法を徹底解説！SEO担当者以外に社長や全社員がやるべきことを学ぶ【公開型勉強会】</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10時00分</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>https://seo-study-meeting.hp.peraichi.com/230711
 https://seo-study-meeting.hp.peraichi.com/230711
@@ -7141,12 +7179,12 @@
 https://www.willgate.co.jp/webinarconsulting/</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>広告・宣伝・PRマーケティング・リサーチ</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>SEO
 SEO対策
@@ -7160,73 +7198,73 @@
 オンライン</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000227.000011200.html</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>2023-06-29T10:00:03+0900</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="41">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>情報通信</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>株式会社デジタルレシピ</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>https://www.dxr.co.jp/</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>未上場</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>4000万円</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>2018年04月</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>株式会社デジタルレシピと株式会社cocoloniが占い事業における生成AI活用の共同研究・開発を開始</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10時00分</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>https://www.dxr.co.jp/
 https://www.wantedly.com/companies/digital-recipe</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>システム・Webサイト・アプリ開発</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>デジタルレシピ
 AI
@@ -7234,74 +7272,74 @@
 cocoloni</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000069.000083539.html</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>2023-06-29T10:00:03+0900</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="42">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>サービス業</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>株式会社ザッパラス</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>http://www.zappallas.com</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>東証スタンダード</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>14億7634万円</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>2000年03月</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>株式会社cocoloniと株式会社デジタルレシピが占い事業における生成AI活用の共同研究・開発を開始</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10時00分</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>https://www.dxr.co.jp/
 https://www.wantedly.com/companies/digital-recipe
 https://www.cocoloni.com/</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>ネットサービス</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>cocoloni
 zappallas
@@ -7315,12 +7353,12 @@
 Chat GPT</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>https://prtimes.jp/main/html/rd/p/000000538.000005725.html</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>2023-06-29T10:00:03+0900</t>
         </is>
